--- a/biology/Botanique/Comarum/Comarum.xlsx
+++ b/biology/Botanique/Comarum/Comarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comarum est un genre de plantes à fleurs de la famille des Rosaceae. Sur les dix espèces classées dans ce genre, une seule est reconnue comme telle selon la World Checklist of Vascular Plants : Comarum palustre.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (12 mai 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (12 mai 2021) :
 Comarum palustre L.
 Comarum salesovianum (Stephan) Asch. &amp; Graebn.
-Selon la World Checklist of Vascular Plants[2] :
+Selon la World Checklist of Vascular Plants :
 Comarum angustifolium Raf., synonyme de Comarum palustre L.
 Comarum arcticum Gand., synonyme de Comarum palustre L.
 Comarum digitatum Raf., synonyme de Comarum palustre L.
@@ -554,13 +568,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre est décrit en 1753 par le naturaliste suédois Carl von Linné, pour l'espèce type Comarum palustre.
 Les genres suivants sont synonymes de Comarum :
-Commarum Schrank, orth. var.[3]
-Farinopsis Chrtek &amp; Soják[3]
-Pancovia Heist. ex Fabr.[1]</t>
+Commarum Schrank, orth. var.
+Farinopsis Chrtek &amp; Soják
+Pancovia Heist. ex Fabr.</t>
         </is>
       </c>
     </row>
